--- a/Home_works_results/Home_works_scores.xlsx
+++ b/Home_works_results/Home_works_scores.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -24,6 +24,9 @@
   </si>
   <si>
     <t>HW2</t>
+  </si>
+  <si>
+    <t>HW3</t>
   </si>
   <si>
     <t>Феликс</t>
@@ -1188,18 +1191,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1209,10 +1212,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1220,10 +1226,13 @@
       <c r="C2">
         <v>0</v>
       </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1231,16 +1240,22 @@
       <c r="C3">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>6</v>
       </c>
       <c r="C4">
         <v>1</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1252,20 +1267,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1273,10 +1288,13 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1284,10 +1302,13 @@
       <c r="C2">
         <v>2</v>
       </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1295,15 +1316,21 @@
       <c r="C3">
         <v>2</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
         <v>2</v>
       </c>
     </row>

--- a/Home_works_results/Home_works_scores.xlsx
+++ b/Home_works_results/Home_works_scores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -27,6 +27,9 @@
   </si>
   <si>
     <t>HW3</t>
+  </si>
+  <si>
+    <t>HW4</t>
   </si>
   <si>
     <t>Феликс</t>
@@ -1191,18 +1194,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1215,10 +1218,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1229,10 +1235,13 @@
       <c r="D2">
         <v>1</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1243,10 +1252,13 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>1.99</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1255,6 +1267,9 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
     </row>
@@ -1267,20 +1282,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1291,10 +1306,13 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1305,10 +1323,13 @@
       <c r="D2">
         <v>2</v>
       </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1319,10 +1340,13 @@
       <c r="D3">
         <v>2</v>
       </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1331,6 +1355,9 @@
         <v>2</v>
       </c>
       <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
         <v>2</v>
       </c>
     </row>

--- a/Home_works_results/Home_works_scores.xlsx
+++ b/Home_works_results/Home_works_scores.xlsx
@@ -1197,7 +1197,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
@@ -1253,7 +1253,7 @@
         <v>2</v>
       </c>
       <c r="E3">
-        <v>1.99</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:5">

--- a/Home_works_results/Home_works_scores.xlsx
+++ b/Home_works_results/Home_works_scores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="9144" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Name</t>
   </si>
@@ -30,6 +30,9 @@
   </si>
   <si>
     <t>HW4</t>
+  </si>
+  <si>
+    <t>HW5</t>
   </si>
   <si>
     <t>Феликс</t>
@@ -1194,18 +1197,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1221,10 +1224,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1238,10 +1244,13 @@
       <c r="E2">
         <v>2</v>
       </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1255,10 +1264,13 @@
       <c r="E3">
         <v>2</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1270,6 +1282,9 @@
         <v>2</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
@@ -1282,20 +1297,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1309,10 +1324,13 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1326,10 +1344,13 @@
       <c r="E2">
         <v>2</v>
       </c>
+      <c r="F2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1343,10 +1364,13 @@
       <c r="E3">
         <v>2</v>
       </c>
+      <c r="F3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1358,6 +1382,9 @@
         <v>2</v>
       </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>

--- a/Home_works_results/Home_works_scores.xlsx
+++ b/Home_works_results/Home_works_scores.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9144"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Name</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>HW5</t>
+  </si>
+  <si>
+    <t>HW6</t>
   </si>
   <si>
     <t>Феликс</t>
@@ -1197,18 +1200,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1227,10 +1230,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1247,10 +1253,13 @@
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1267,10 +1276,13 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1286,6 +1298,9 @@
       </c>
       <c r="F4">
         <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1297,20 +1312,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1327,10 +1342,13 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1347,10 +1365,13 @@
       <c r="F2">
         <v>2</v>
       </c>
+      <c r="G2">
+        <v>3</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1367,10 +1388,13 @@
       <c r="F3">
         <v>2</v>
       </c>
+      <c r="G3">
+        <v>3</v>
+      </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1386,6 +1410,9 @@
       </c>
       <c r="F4">
         <v>2</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Home_works_results/Home_works_scores.xlsx
+++ b/Home_works_results/Home_works_scores.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Name</t>
   </si>
@@ -36,6 +36,9 @@
   </si>
   <si>
     <t>HW6</t>
+  </si>
+  <si>
+    <t>HW7</t>
   </si>
   <si>
     <t>Феликс</t>
@@ -1200,18 +1203,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1233,10 +1236,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1256,10 +1262,13 @@
       <c r="G2">
         <v>3</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1279,10 +1288,13 @@
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1301,6 +1313,9 @@
       </c>
       <c r="G4">
         <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1312,20 +1327,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1345,10 +1360,13 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1368,10 +1386,13 @@
       <c r="G2">
         <v>3</v>
       </c>
+      <c r="H2">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1391,10 +1412,13 @@
       <c r="G3">
         <v>3</v>
       </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1413,6 +1437,9 @@
       </c>
       <c r="G4">
         <v>3</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Home_works_results/Home_works_scores.xlsx
+++ b/Home_works_results/Home_works_scores.xlsx
@@ -4,18 +4,31 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9144"/>
+    <workbookView windowWidth="22188" windowHeight="9120" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Scores" sheetId="1" r:id="rId1"/>
     <sheet name="Values" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Name</t>
   </si>
@@ -41,6 +54,9 @@
     <t>HW7</t>
   </si>
   <si>
+    <t>HW8</t>
+  </si>
+  <si>
     <t>Феликс</t>
   </si>
   <si>
@@ -56,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
@@ -1203,18 +1219,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1239,10 +1255,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>6</v>
@@ -1265,10 +1284,13 @@
       <c r="H2">
         <v>2</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>6</v>
@@ -1291,10 +1313,13 @@
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>6</v>
@@ -1316,6 +1341,9 @@
       </c>
       <c r="H4">
         <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1327,20 +1355,20 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="12.2222222222222" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -1363,10 +1391,13 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -1389,10 +1420,13 @@
       <c r="H2">
         <v>2</v>
       </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -1415,10 +1449,13 @@
       <c r="H3">
         <v>2</v>
       </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4">
         <v>4</v>
@@ -1440,6 +1477,9 @@
       </c>
       <c r="H4">
         <v>2</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
